--- a/datalib/testdata/test.xlsx
+++ b/datalib/testdata/test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\python\python_git\python-analysis\datalib\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="16290" windowHeight="6600"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="16290" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>bdpc</t>
   </si>
@@ -104,10 +99,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>发的</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>a</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -137,6 +128,34 @@
   </si>
   <si>
     <t>HIS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdas</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>weqr.qr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vds</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -144,6 +163,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm;@"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -735,29 +757,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -772,15 +794,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -797,7 +819,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -839,7 +861,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -874,7 +896,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1083,38 +1105,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1134,13 +1159,13 @@
         <v>4.6111111109999996</v>
       </c>
       <c r="G2" s="1">
-        <v>43070</v>
+        <v>43070.043761574074</v>
       </c>
       <c r="H2">
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1160,13 +1185,13 @@
         <v>4.7777777779999999</v>
       </c>
       <c r="G3" s="1">
-        <v>43071</v>
+        <v>43071.12709490741</v>
       </c>
       <c r="H3">
         <v>1234</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1186,13 +1211,13 @@
         <v>4.9444444440000002</v>
       </c>
       <c r="G4" s="1">
-        <v>43072</v>
+        <v>43072.042372685188</v>
       </c>
       <c r="H4">
         <v>1234</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1212,13 +1237,13 @@
         <v>5.1111111109999996</v>
       </c>
       <c r="G5" s="1">
-        <v>43073</v>
+        <v>43073.043761516201</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1238,13 +1263,13 @@
         <v>6.7777777779999999</v>
       </c>
       <c r="G6" s="1">
-        <v>43074</v>
+        <v>43074.043761516201</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1263,12 +1288,14 @@
       <c r="F7">
         <v>6.9444444440000002</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>43075.043761516201</v>
+      </c>
       <c r="H7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1285,13 +1312,13 @@
         <v>7.1111111109999996</v>
       </c>
       <c r="G8" s="1">
-        <v>43076</v>
+        <v>43076.043761516201</v>
       </c>
       <c r="H8">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1305,13 +1332,13 @@
         <v>5</v>
       </c>
       <c r="G9" s="1">
-        <v>43077</v>
+        <v>43077.043761516201</v>
       </c>
       <c r="H9">
         <v>5364</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1331,13 +1358,13 @@
         <v>7.4444444440000002</v>
       </c>
       <c r="G10" s="1">
-        <v>43078</v>
+        <v>43078.043761516201</v>
       </c>
       <c r="H10">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1357,13 +1384,13 @@
         <v>5.1212999999999997</v>
       </c>
       <c r="G11" s="1">
-        <v>43079</v>
+        <v>43079.043761516201</v>
       </c>
       <c r="H11">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1376,19 +1403,22 @@
       <c r="F12">
         <v>7.777777779</v>
       </c>
+      <c r="G12" s="1">
+        <v>43080.043761516201</v>
+      </c>
       <c r="H12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>342</v>
@@ -1397,7 +1427,177 @@
         <v>7.9444444460000003</v>
       </c>
       <c r="G13" s="1">
-        <v>43072</v>
+        <v>43081.043761458335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>4.32</v>
+      </c>
+      <c r="G14" s="1">
+        <v>43082.043761458335</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3.2229629626666698</v>
+      </c>
+      <c r="G15" s="1">
+        <v>43083.043761458335</v>
+      </c>
+      <c r="H15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>1.49407407316667</v>
+      </c>
+      <c r="G16" s="1">
+        <v>43084.043761458335</v>
+      </c>
+      <c r="H16">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>7.4444444440000002</v>
+      </c>
+      <c r="G17" s="1">
+        <v>43085.043761458335</v>
+      </c>
+      <c r="H17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>6.0314814805833397</v>
+      </c>
+      <c r="G18" s="1">
+        <v>43086.043761458335</v>
+      </c>
+      <c r="H18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19">
+        <v>6.7959259248333401</v>
+      </c>
+      <c r="G19" s="1">
+        <v>43087.043761458335</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>342</v>
+      </c>
+      <c r="F20">
+        <v>7.5603703690833397</v>
+      </c>
+      <c r="G20" s="1">
+        <v>43088.043761458335</v>
       </c>
     </row>
   </sheetData>
